--- a/NOFS-Telescopes.xlsx
+++ b/NOFS-Telescopes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/Optics/Ray tracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDCBB48-95F3-9841-BE03-33730622CC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4D1927-6C62-F345-A887-184262790843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10800" yWindow="6640" windowWidth="47780" windowHeight="16760" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
   </bookViews>
@@ -49,6 +49,12 @@
     <author>tc={85E3B126-43D6-094E-B8BE-A27C4989E2BE}</author>
     <author>tc={9D1DBCD1-66F9-FC43-A270-B8AA33D3D9BA}</author>
     <author>tc={599CDE9C-DE6D-D24E-B887-9F3C4EE18425}</author>
+    <author>tc={7431E541-2B88-C945-A634-8CBA58C41BA2}</author>
+    <author>tc={814CFA3D-FA54-9444-9151-BCA2F1EDADCD}</author>
+    <author>tc={657B9C48-B428-3C40-8068-34DECA5F33A6}</author>
+    <author>tc={D9869BD4-6229-984D-AA75-E2711985E400}</author>
+    <author>tc={7B1F4DCB-9E16-DF4A-AABB-8CB4BFB2BBBF}</author>
+    <author>tc={E9CD66AE-FB9F-574A-B74C-C41D982DEA62}</author>
   </authors>
   <commentList>
     <comment ref="A7" authorId="0" shapeId="0" xr:uid="{F0B50C6E-B471-C840-AFAF-86D29A3A3206}">
@@ -139,12 +145,60 @@
     Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </t>
       </text>
     </comment>
+    <comment ref="I12" authorId="11" shapeId="0" xr:uid="{7431E541-2B88-C945-A634-8CBA58C41BA2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not allow for stop at secondary. </t>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="12" shapeId="0" xr:uid="{814CFA3D-FA54-9444-9151-BCA2F1EDADCD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not allow for stop at secondary.</t>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="13" shapeId="0" xr:uid="{657B9C48-B428-3C40-8068-34DECA5F33A6}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See telescope-optics.net Sections 4.3 and 4.2 in which Delta is defined in equation 21. </t>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="14" shapeId="0" xr:uid="{D9869BD4-6229-984D-AA75-E2711985E400}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Assumes a 2048 square detector, 15 micron pixels with max image height of 15.36 mm rounded to 15mm and max normalized pupil radius = 1, telescope-optics.net Eqn. 31. I think the sign is correct as it should curve away from the focal plane and point away from the secondary. Without the secondary the curvature "curves" away from the primary. </t>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="15" shapeId="0" xr:uid="{7B1F4DCB-9E16-DF4A-AABB-8CB4BFB2BBBF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    relative secondary magnification from system and primary F numbers</t>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="16" shapeId="0" xr:uid="{E9CD66AE-FB9F-574A-B74C-C41D982DEA62}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    relative secondary magnification from system i-prime and i image distances</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>Diam. (mm)</t>
   </si>
@@ -1560,19 +1614,186 @@
   </si>
   <si>
     <t>F/</t>
+  </si>
+  <si>
+    <t>Dall-Kirkham</t>
+  </si>
+  <si>
+    <t>40-cm</t>
+  </si>
+  <si>
+    <t>Astigmatism stop coefficient</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rms w/ stop coeff. α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rms w/ stop coeff. α</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nm) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">curv </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">pupil height </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(nm)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1608,6 +1829,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1629,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1660,6 +1887,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2037,20 +2267,41 @@
   <threadedComment ref="W7" dT="2025-12-30T00:18:39.75" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{599CDE9C-DE6D-D24E-B887-9F3C4EE18425}">
     <text xml:space="preserve">Wavefront Peak-to-valley Seidel coma error at diffraction focus (Eqn. 84.2, telescopeoptics.net) </text>
   </threadedComment>
+  <threadedComment ref="I12" dT="2026-01-14T21:37:54.72" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{7431E541-2B88-C945-A634-8CBA58C41BA2}">
+    <text xml:space="preserve">Does not allow for stop at secondary. </text>
+  </threadedComment>
+  <threadedComment ref="J12" dT="2026-01-14T21:38:11.64" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{814CFA3D-FA54-9444-9151-BCA2F1EDADCD}">
+    <text>Does not allow for stop at secondary.</text>
+  </threadedComment>
+  <threadedComment ref="O12" dT="2026-01-14T22:20:34.13" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{657B9C48-B428-3C40-8068-34DECA5F33A6}">
+    <text xml:space="preserve">See telescope-optics.net Sections 4.3 and 4.2 in which Delta is defined in equation 21. </text>
+  </threadedComment>
+  <threadedComment ref="P12" dT="2026-01-15T00:09:35.28" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{D9869BD4-6229-984D-AA75-E2711985E400}">
+    <text xml:space="preserve">Assumes a 2048 square detector, 15 micron pixels with max image height of 15.36 mm rounded to 15mm and max normalized pupil radius = 1, telescope-optics.net Eqn. 31. I think the sign is correct as it should curve away from the focal plane and point away from the secondary. Without the secondary the curvature "curves" away from the primary. </text>
+  </threadedComment>
+  <threadedComment ref="F14" dT="2025-12-05T18:56:25.76" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{7B1F4DCB-9E16-DF4A-AABB-8CB4BFB2BBBF}">
+    <text>relative secondary magnification from system and primary F numbers</text>
+  </threadedComment>
+  <threadedComment ref="G14" dT="2025-12-05T18:56:25.76" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{E9CD66AE-FB9F-574A-B74C-C41D982DEA62}">
+    <text>relative secondary magnification from system i-prime and i image distances</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF685D-8724-5246-AEF2-3915C8A371E5}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="13" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2135,13 +2386,13 @@
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>1549</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>-30557.78</v>
       </c>
       <c r="E2" s="1">
@@ -2176,13 +2427,13 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>1000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="11">
         <v>7.3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>-14600</v>
       </c>
     </row>
@@ -2190,13 +2441,13 @@
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>1287.78</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>-6060.69</v>
       </c>
       <c r="E4" s="1">
@@ -2237,6 +2488,20 @@
       </c>
       <c r="W4" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5">
+        <v>400</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-5600</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="10" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,7 +2671,7 @@
         <f>(Q9*0.0175/60)*$B$4/(48*$C$4^2)*1000000</f>
         <v>5140.0810872395841</v>
       </c>
-      <c r="X9" s="11"/>
+      <c r="X9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2482,6 +2747,30 @@
       </c>
       <c r="H12" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2520,6 +2809,82 @@
         <f>F13/SQRT(32)</f>
         <v>250.54733454325071</v>
       </c>
+      <c r="I13" s="1">
+        <f>($D$2*(C13*0.0174538/60)^2)/(8*$C$2)*1000000</f>
+        <v>-1733.6412815662998</v>
+      </c>
+      <c r="J13" s="1">
+        <f>($D$2*(D13*0.0174538/60)^2)/(8*$C$2)*1000000</f>
+        <v>-6934.5651262651991</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13/SQRT(24)</f>
+        <v>-353.87804473851128</v>
+      </c>
+      <c r="L13" s="1">
+        <f>J13/SQRT(24)</f>
+        <v>-1415.5121789540451</v>
+      </c>
+      <c r="M13" s="1">
+        <f>K13*$O$13</f>
+        <v>1.6414007953431176E-5</v>
+      </c>
+      <c r="N13" s="1">
+        <f>L13*$O$13</f>
+        <v>6.5656031813724706E-5</v>
+      </c>
+      <c r="O13" s="1">
+        <f>(((6600*0.04995128)^2*(E2*(6600/ABS(D2))^2+(1-6600/ABS(D2))^2))/(0.21598*D2)^2)/D2</f>
+        <v>-4.6383233425967043E-8</v>
+      </c>
+      <c r="P13" s="7">
+        <f>(15)^2/(16*ABS(B13)*C2^2)*1000000</f>
+        <v>9.5833771474546321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1">
+        <f>D5/2</f>
+        <v>-2800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NOFS-Telescopes.xlsx
+++ b/NOFS-Telescopes.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/Optics/Ray tracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A64E115-4D50-B94F-8225-3247066CE234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28B7788-A60D-F646-8829-AFAC01CC2332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="3460" windowWidth="47780" windowHeight="16760" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
+    <workbookView xWindow="15580" yWindow="1440" windowWidth="44560" windowHeight="25060" activeTab="1" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
   </bookViews>
   <sheets>
     <sheet name="NOFS" sheetId="2" r:id="rId1"/>
+    <sheet name="Exact trace" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,6 +59,7 @@
     <author>tc={D9869BD4-6229-984D-AA75-E2711985E400}</author>
     <author>tc={7B1F4DCB-9E16-DF4A-AABB-8CB4BFB2BBBF}</author>
     <author>tc={E9CD66AE-FB9F-574A-B74C-C41D982DEA62}</author>
+    <author>tc={671D3686-500B-8C4F-ABC4-908D8B045A47}</author>
   </authors>
   <commentList>
     <comment ref="A5" authorId="0" shapeId="0" xr:uid="{3AAA742A-42EE-1F4C-8616-8A30E5484FAF}">
@@ -220,12 +222,20 @@
     relative secondary magnification from system i-prime and i image distances</t>
       </text>
     </comment>
+    <comment ref="V14" authorId="20" shapeId="0" xr:uid="{671D3686-500B-8C4F-ABC4-908D8B045A47}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is, in terms of system focal length, 0.38 f.l. and larger to the "best astigmatic" median Rm of 0.3 of system f.l. for a classical Cassegrain and R-C which would be a bit less than 0.3 for 1.89 secondary magnification. D-K is slightly more curved. </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>Diam. (mm)</t>
   </si>
@@ -1864,20 +1874,546 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Median field curvature R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <t>Telescope</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Exact Ray Trace</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Direction cosine check</t>
+  </si>
+  <si>
+    <r>
+      <t>cos(I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Full Radius Marginal Ray</t>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>to Mirror 1    (0 - 1)</t>
+  </si>
+  <si>
+    <t>to Mirror 2 (1 - 2)</t>
+  </si>
+  <si>
+    <t>to Focal Plane (2 -3)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <r>
+      <t>T for Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = 0.0 (mm)</t>
+    </r>
+  </si>
+  <si>
+    <t>t2 for diffraction focus (mm)</t>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <t>(mm)</t>
+  </si>
+  <si>
+    <t>ξ   (mm)</t>
+  </si>
+  <si>
+    <t>T (mm)</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Abadi MT Condensed Extra Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1/mm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1/mm)</t>
+    </r>
+  </si>
+  <si>
+    <t>t1 (mm)</t>
+  </si>
+  <si>
+    <t>t2 (focus) (mm)</t>
+  </si>
+  <si>
+    <t>Min. Radius Marginal Ray</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1914,17 +2450,56 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1947,7 +2522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1991,6 +2566,27 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2006,6 +2602,140 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34773</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14512</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="201084" cy="189604"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4ACDFF9-E7E7-F7C3-C321-6206A2092DD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="34773" y="3107869"/>
+              <a:ext cx="201084" cy="189604"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1200" b="1" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝝌</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4ACDFF9-E7E7-F7C3-C321-6206A2092DD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="34773" y="3107869"/>
+              <a:ext cx="201084" cy="189604"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="1" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝝌</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2391,6 +3121,9 @@
   <threadedComment ref="G14" dT="2025-12-05T18:56:25.76" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{E9CD66AE-FB9F-574A-B74C-C41D982DEA62}">
     <text>relative secondary magnification from system i-prime and i image distances</text>
   </threadedComment>
+  <threadedComment ref="V14" dT="2026-01-20T16:35:59.80" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{671D3686-500B-8C4F-ABC4-908D8B045A47}">
+    <text xml:space="preserve">This is, in terms of system focal length, 0.38 f.l. and larger to the "best astigmatic" median Rm of 0.3 of system f.l. for a classical Cassegrain and R-C which would be a bit less than 0.3 for 1.89 secondary magnification. D-K is slightly more curved. </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2398,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF685D-8724-5246-AEF2-3915C8A371E5}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3027,6 +3760,9 @@
       <c r="U14" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="V14" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -3103,10 +3839,645 @@
       <c r="U15" s="5">
         <f>R15/32</f>
         <v>59.318375800045942</v>
+      </c>
+      <c r="V15" s="1">
+        <f>-1*((1+I15)*D5*H15^2)/(2*((H15^2-2)*(H15-I15)+(H15+1)*H15-1*(H15^2-1)*(H15-I15)^2/(2*H15)))</f>
+        <v>1073.4672092007195</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3D5ED7-AD07-A046-96A1-F16751D23497}">
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="15" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>200</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <f>-3048</f>
+        <v>-3048</v>
+      </c>
+      <c r="I3" s="11">
+        <v>-2865</v>
+      </c>
+      <c r="J3" s="15">
+        <f>1/-3048</f>
+        <v>-3.2808398950131233E-4</v>
+      </c>
+      <c r="K3" s="15">
+        <f>1/-2865</f>
+        <v>-3.4904013961605586E-4</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="5">
+        <v>-885</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
+        <v>90</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <f>-3048</f>
+        <v>-3048</v>
+      </c>
+      <c r="I4" s="11">
+        <v>-2865</v>
+      </c>
+      <c r="J4" s="15">
+        <f>1/-3048</f>
+        <v>-3.2808398950131233E-4</v>
+      </c>
+      <c r="K4" s="15">
+        <f>1/-2865</f>
+        <v>-3.4904013961605586E-4</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-885</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="15">
+        <f>(D3-C3)/G3</f>
+        <v>1500</v>
+      </c>
+      <c r="C11" s="15">
+        <f>(M3 - B19)/B25</f>
+        <v>-886.0612289846415</v>
+      </c>
+      <c r="D11" s="15">
+        <f>(N3 - C19)/C25</f>
+        <v>1219.4574232072262</v>
+      </c>
+      <c r="F11" s="15">
+        <f>(D4-C4)/G4</f>
+        <v>1500</v>
+      </c>
+      <c r="G11" s="1">
+        <f>(M4-F19)/F25</f>
+        <v>-885.21456607857363</v>
+      </c>
+      <c r="H11">
+        <f>(N4-G19)/G25</f>
+        <v>1215.8991890419227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="19" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="15">
+        <f xml:space="preserve"> A3+B11*E3</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <f xml:space="preserve"> B17+C11*B23</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <f xml:space="preserve"> C17+D11*C23</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <f>A4+F11*E4</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f>F17+G11*F23</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <f>G17+H11*G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="15">
+        <f>B3+B11*F3</f>
+        <v>200</v>
+      </c>
+      <c r="C13" s="15">
+        <f>B18+C11*B24</f>
+        <v>83.969596508964727</v>
+      </c>
+      <c r="D13" s="15">
+        <f>C18+D11*C24</f>
+        <v>-4.9088625286877203</v>
+      </c>
+      <c r="F13" s="15">
+        <f>B4+F11*F4</f>
+        <v>90</v>
+      </c>
+      <c r="G13" s="15">
+        <f>F18+G11*F24</f>
+        <v>37.746343527691124</v>
+      </c>
+      <c r="H13" s="15">
+        <f>G18+H11*G24</f>
+        <v>-2.04937234108138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="19" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="15">
+        <f>G3-(J3)*(B12*E3+B13*F3)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <f>B25-1*K3*(C12*B23+C13*B24)</f>
+        <v>0.99522687642442142</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="15">
+        <f>G4-J4*(F12*E4+F13*F4)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <f>F25-1*K4*(G12*F23+G13*F24)</f>
+        <v>0.99903395778882309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="19" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="15">
+        <f>J3*(B12^2+B13^2)</f>
+        <v>-13.123359580052494</v>
+      </c>
+      <c r="C15" s="15">
+        <f>K3*(C12^2+C13^2)</f>
+        <v>-2.4610447252629464</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="15">
+        <f>J4*(F12^2+F13^2)</f>
+        <v>-2.6574803149606301</v>
+      </c>
+      <c r="G15" s="15">
+        <f>K4*(G12^2+G13^2)</f>
+        <v>-0.49730766133000692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="15">
+        <f>B15/(B14+SQRT(B14^2-1*(J3)*B15))</f>
+        <v>-6.5687579693668177</v>
+      </c>
+      <c r="C16" s="15">
+        <f>C15/(C14+SQRT(C14^2-1*(K3)*C15))</f>
+        <v>-1.2366921594365914</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="15">
+        <f>F15/(F14+SQRT(F14^2-1*(J4)*F15))</f>
+        <v>-1.3290299082180017</v>
+      </c>
+      <c r="G16" s="15">
+        <f>G15/(G14+SQRT(G14^G172-1*(K4)*G15))</f>
+        <v>-0.24878479547757346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="15">
+        <f>B12+B16*E3</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <f>C12+C16*B23</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <f>F12+F16*E4</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f>G12+G16*F23</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>H12+H16*G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="15">
+        <f>B13+B16*F3</f>
+        <v>200</v>
+      </c>
+      <c r="C18" s="15">
+        <f>C13+C16*B24</f>
+        <v>83.807650713843927</v>
+      </c>
+      <c r="D18" s="15">
+        <f>D13</f>
+        <v>-4.9088625286877203</v>
+      </c>
+      <c r="F18" s="15">
+        <f>F13+F16*F4</f>
+        <v>90</v>
+      </c>
+      <c r="G18" s="1">
+        <f>G13+G16*F24</f>
+        <v>37.731657918420133</v>
+      </c>
+      <c r="H18" s="1">
+        <f>H13+H16*G24</f>
+        <v>-2.04937234108138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="15">
+        <f>B16*G3</f>
+        <v>-6.5687579693668177</v>
+      </c>
+      <c r="C19" s="15">
+        <f>C16*B25</f>
+        <v>-1.2260428445428131</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="F19" s="15">
+        <f>F16*G4</f>
+        <v>-1.3290299082180017</v>
+      </c>
+      <c r="G19" s="1">
+        <f>G16*F25</f>
+        <v>-0.2483509761228207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="15">
+        <f>SQRT(B14^2 -1*(J3)*B15)</f>
+        <v>0.99784489567934154</v>
+      </c>
+      <c r="C20" s="15">
+        <f>SQRT(C14^2 -1*(K3)*C15)</f>
+        <v>0.99479522122042963</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="F20" s="15">
+        <f>SQRT(F14^2 -1*(J4)*F15)</f>
+        <v>0.99956396656554525</v>
+      </c>
+      <c r="G20" s="1">
+        <f>SQRT(G14^2-1*K4*G15)</f>
+        <v>0.99894707991948062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="15">
+        <f>2*B20</f>
+        <v>1.9956897913586831</v>
+      </c>
+      <c r="C21" s="15">
+        <f>2*C20</f>
+        <v>1.9895904424408593</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="F21" s="15">
+        <f>2*F20</f>
+        <v>1.9991279331310905</v>
+      </c>
+      <c r="G21" s="15">
+        <f>2*G20</f>
+        <v>1.9978941598389612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="15">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="15">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="F22" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="15">
+        <f>B22*E3-1*B21*J3*B17</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <f>C22*B23-1*C21*K3*C17</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="F23" s="15">
+        <f>F22*E4-1*F21*J4*F17</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <f>G22*F23-1*G21*K4*G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="15">
+        <f>B22*E3-1*B21*J3*B18</f>
+        <v>0.13095077371119968</v>
+      </c>
+      <c r="C24" s="15">
+        <f>C22*B24-1*C21*K3*C18</f>
+        <v>-7.2750808313752649E-2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="F24" s="15">
+        <f>F22*F4-1*F21*J4*F18</f>
+        <v>5.9029368104264478E-2</v>
+      </c>
+      <c r="G24" s="15">
+        <f>G22*F24-1*G21*K4*G18</f>
+        <v>-3.2717375435415239E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="15">
+        <f>B22*G3-1*B21*(J3*B19 - 1)</f>
+        <v>0.99138887166663214</v>
+      </c>
+      <c r="C25" s="15">
+        <f>C22*B25-1*C21*(K3*C19 - 1)</f>
+        <v>0.99735014908992503</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="F25" s="15">
+        <f>F22*G3-1*F21*(J4*F19 - 1)</f>
+        <v>0.9982562465124929</v>
+      </c>
+      <c r="G25" s="15">
+        <f>G22*F25-1*G21*(K4*G19 - 1)</f>
+        <v>0.99946472695132504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="15">
+        <f>B23^2+B24^2+B25^2</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C26" s="15">
+        <f>C23^2+C24^2+C25^2</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F26" s="15">
+        <f>F23^2+F24^2+F25^2</f>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="G26" s="15">
+        <f>G23^2+G24^2+G25^2</f>
+        <v>1.0000001670752685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="1">
+        <f>-1*C18/C24</f>
+        <v>1151.9823993213436</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="1">
+        <f>-1*G18/G24</f>
+        <v>1153.2605356106021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="15">
+        <f>D27*C25+C19</f>
+        <v>1147.7037748675687</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="15">
+        <f>H27*G25+G19</f>
+        <v>1152.3948753516665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/NOFS-Telescopes.xlsx
+++ b/NOFS-Telescopes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bob.zavala/Desktop/bobMacBackUp/Optics/Ray tracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28B7788-A60D-F646-8829-AFAC01CC2332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C424133-EEA2-5446-91D9-80EAE95100EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15580" yWindow="1440" windowWidth="44560" windowHeight="25060" activeTab="1" xr2:uid="{9120E6CE-487D-4A4E-A0CB-02EC34448099}"/>
   </bookViews>
@@ -234,8 +234,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={164D0010-E569-924F-BA13-1C3EDB91DED7}</author>
+  </authors>
+  <commentList>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{164D0010-E569-924F-BA13-1C3EDB91DED7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1215 mm is the focal plane location via a paraxial y-nu ray trace. Using the 1:5.3 scale drawing the focus via the back focal length to presumed secondary mirror surface is 1220  mm.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>Diam. (mm)</t>
   </si>
@@ -2399,6 +2417,9 @@
   </si>
   <si>
     <t>Min. Radius Marginal Ray</t>
+  </si>
+  <si>
+    <t>40cm</t>
   </si>
 </sst>
 </file>
@@ -2614,8 +2635,8 @@
       <xdr:rowOff>14512</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="201084" cy="189604"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2657,6 +2678,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2678,7 +2700,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3127,6 +3149,14 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N3" dT="2026-01-22T00:16:24.58" personId="{8C851638-141B-034A-B4A3-8E6355A961FE}" id="{164D0010-E569-924F-BA13-1C3EDB91DED7}">
+    <text>1215 mm is the focal plane location via a paraxial y-nu ray trace. Using the 1:5.3 scale drawing the focus via the back focal length to presumed secondary mirror surface is 1220  mm.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BF685D-8724-5246-AEF2-3915C8A371E5}">
   <dimension ref="A1:Y15"/>
@@ -3852,11 +3882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3D5ED7-AD07-A046-96A1-F16751D23497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3D5ED7-AD07-A046-96A1-F16751D23497}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3878,6 +3908,9 @@
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4479,5 +4512,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>